--- a/HumanRoad/Assets/Resources/Dictionary.csv.xlsx
+++ b/HumanRoad/Assets/Resources/Dictionary.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSUIR\HumanRoadGame\HumanRoad\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36865CC5-3003-46E5-88B1-3D53DDE7ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C791C040-6511-47ED-9E2A-8F6D5D3AA828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{49AA33F0-9D32-4EDC-9001-EAB07C232253}"/>
   </bookViews>
